--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/213234.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/213234.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2258,25 +2258,25 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2385,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="2" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,25 +2905,25 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>1</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,25 +3165,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3419,25 +3419,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3467,16 +3467,16 @@
         <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3685,19 +3685,19 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
         <v>0</v>
@@ -3854,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -3945,31 +3945,31 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3981,40 +3981,40 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4048,13 +4048,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,19 +4078,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
         <v>0</v>
@@ -4114,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="2" t="n">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4175,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -4190,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4205,31 +4205,31 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4241,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4435,22 +4435,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4465,19 +4465,19 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4501,22 +4501,22 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,22 +4595,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="2" t="n">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4701,43 +4701,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4761,13 +4761,13 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4828,22 +4828,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1</v>
@@ -4855,22 +4855,22 @@
         <v>0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -4894,31 +4894,31 @@
         <v>1</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4988,22 +4988,22 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2" t="n">
         <v>0</v>
@@ -5027,31 +5027,31 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="2" t="n">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5085,25 +5085,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5115,22 +5115,22 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -5154,13 +5154,13 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -5169,16 +5169,16 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5218,25 +5218,25 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5248,22 +5248,22 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2" t="n">
         <v>0</v>
@@ -5287,31 +5287,31 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="2" t="n">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5345,25 +5345,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5372,25 +5372,25 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -5402,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5414,31 +5414,31 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5478,25 +5478,25 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,22 +5508,22 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="2" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,31 +5547,31 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="2" t="n">
         <v>1</v>
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5605,25 +5605,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -5632,25 +5632,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -5662,10 +5662,10 @@
         <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,31 +5674,31 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5738,25 +5738,25 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5768,22 +5768,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5807,40 +5807,40 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5865,25 +5865,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5892,25 +5892,25 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -5922,10 +5922,10 @@
         <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5934,40 +5934,40 @@
         <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
         <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK42" t="n">
         <v>2</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5998,25 +5998,25 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6031,19 +6031,19 @@
         <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
@@ -6055,10 +6055,10 @@
         <v>1</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6067,40 +6067,40 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6125,25 +6125,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -6158,19 +6158,19 @@
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -6182,10 +6182,10 @@
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6194,40 +6194,40 @@
         <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
         <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>1</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK44" t="n">
         <v>2</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6258,25 +6258,25 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6288,22 +6288,22 @@
         <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
@@ -6315,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6327,40 +6327,40 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6385,25 +6385,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -6415,37 +6415,37 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -6454,22 +6454,22 @@
         <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
         <v>0</v>
@@ -6478,16 +6478,16 @@
         <v>1</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK46" t="n">
         <v>2</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6518,25 +6518,25 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6551,19 +6551,19 @@
         <v>2</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
         <v>0</v>
@@ -6575,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6593,34 +6593,34 @@
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6645,25 +6645,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6678,19 +6678,19 @@
         <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
         <v>2</v>
@@ -6720,16 +6720,16 @@
         <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -6738,16 +6738,16 @@
         <v>1</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" t="n">
         <v>2</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6778,25 +6778,25 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6808,22 +6808,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="2" t="n">
         <v>0</v>
@@ -6835,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2" t="n">
         <v>0</v>
@@ -6853,34 +6853,34 @@
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6905,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6935,22 +6935,22 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -6962,10 +6962,10 @@
         <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -6980,13 +6980,13 @@
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
         <v>1</v>
@@ -6995,19 +6995,19 @@
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK50" t="n">
         <v>2</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7038,25 +7038,25 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,25 +7068,25 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="2" t="n">
         <v>1</v>
@@ -7095,10 +7095,10 @@
         <v>1</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2" t="n">
         <v>0</v>
@@ -7113,34 +7113,34 @@
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7165,16 +7165,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="W52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -7240,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
         <v>1</v>
@@ -7255,19 +7255,19 @@
         <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" t="n">
         <v>1</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7298,25 +7298,25 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7328,25 +7328,25 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="2" t="n">
         <v>1</v>
@@ -7355,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>0</v>
@@ -7373,34 +7373,34 @@
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -7455,37 +7455,37 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -7500,16 +7500,16 @@
         <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>1</v>
@@ -7521,13 +7521,13 @@
         <v>1</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK54" t="n">
         <v>2</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7558,25 +7558,25 @@
         <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7591,22 +7591,22 @@
         <v>3</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2" t="n">
         <v>1</v>
@@ -7615,10 +7615,10 @@
         <v>1</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>0</v>
@@ -7627,40 +7627,40 @@
         <v>1</v>
       </c>
       <c r="AA55" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="3" t="inlineStr">
         <is>
@@ -7682,28 +7682,28 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -7718,22 +7718,22 @@
         <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1</v>
@@ -7742,10 +7742,10 @@
         <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -7754,19 +7754,19 @@
         <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB56" t="n">
         <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
         <v>1</v>
@@ -7775,19 +7775,19 @@
         <v>1</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" t="n">
         <v>1</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK56" t="n">
         <v>2</v>
       </c>
       <c r="AL56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="3" t="inlineStr">
         <is>
@@ -7818,25 +7818,25 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7851,22 +7851,22 @@
         <v>3</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
         <v>1</v>
@@ -7875,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="2" t="n">
         <v>0</v>
@@ -7887,34 +7887,34 @@
         <v>1</v>
       </c>
       <c r="AA57" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>2</v>
@@ -7942,28 +7942,28 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -7978,22 +7978,22 @@
         <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
         <v>1</v>
@@ -8002,10 +8002,10 @@
         <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
@@ -8014,22 +8014,22 @@
         <v>1</v>
       </c>
       <c r="AA58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB58" t="n">
         <v>1</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="n">
         <v>1</v>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK58" t="n">
         <v>2</v>
@@ -8078,25 +8078,25 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8111,22 +8111,22 @@
         <v>3</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="2" t="n">
         <v>1</v>
@@ -8135,10 +8135,10 @@
         <v>1</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="2" t="n">
         <v>0</v>
@@ -8147,34 +8147,34 @@
         <v>1</v>
       </c>
       <c r="AA59" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK59" s="2" t="n">
         <v>2</v>
@@ -8205,25 +8205,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -8238,22 +8238,22 @@
         <v>3</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
         <v>1</v>
@@ -8262,46 +8262,46 @@
         <v>1</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" t="n">
         <v>1</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB60" t="n">
         <v>1</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
       </c>
       <c r="AE60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
         <v>1</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" t="n">
         <v>1</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
         <v>2</v>
@@ -8338,25 +8338,25 @@
         <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8371,22 +8371,22 @@
         <v>3</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="n">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="X61" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="2" t="n">
         <v>0</v>
@@ -8407,34 +8407,34 @@
         <v>1</v>
       </c>
       <c r="AA61" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH61" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>2</v>
@@ -8462,28 +8462,28 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -8498,22 +8498,22 @@
         <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>1</v>
       </c>
       <c r="AA62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -8549,19 +8549,19 @@
         <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
         <v>1</v>
       </c>
       <c r="AH62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI62" t="n">
         <v>1</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK62" t="n">
         <v>2</v>
@@ -8598,25 +8598,25 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8631,22 +8631,22 @@
         <v>3</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="2" t="n">
         <v>1</v>
@@ -8655,10 +8655,10 @@
         <v>1</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X63" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="2" t="n">
         <v>0</v>
@@ -8673,28 +8673,28 @@
         <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH63" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK63" s="2" t="n">
         <v>2</v>
@@ -8725,25 +8725,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -8758,22 +8758,22 @@
         <v>3</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
         <v>1</v>
@@ -8782,10 +8782,10 @@
         <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
@@ -8800,28 +8800,28 @@
         <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
         <v>1</v>
       </c>
       <c r="AF64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
         <v>1</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK64" t="n">
         <v>2</v>
@@ -8858,25 +8858,25 @@
         <v>0</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8891,22 +8891,22 @@
         <v>3</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="2" t="n">
         <v>1</v>
@@ -8915,10 +8915,10 @@
         <v>1</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X65" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="2" t="n">
         <v>0</v>
@@ -8933,28 +8933,28 @@
         <v>1</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH65" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ65" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK65" s="2" t="n">
         <v>3</v>
@@ -8985,25 +8985,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -9018,22 +9018,22 @@
         <v>3</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>1</v>
@@ -9042,10 +9042,10 @@
         <v>1</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -9060,28 +9060,28 @@
         <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
         <v>1</v>
       </c>
       <c r="AF66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
         <v>1</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK66" t="n">
         <v>3</v>
@@ -9118,25 +9118,25 @@
         <v>0</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1</v>
@@ -9145,28 +9145,28 @@
         <v>0</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="2" t="n">
         <v>1</v>
@@ -9175,10 +9175,10 @@
         <v>1</v>
       </c>
       <c r="W67" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X67" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="2" t="n">
         <v>0</v>
@@ -9193,28 +9193,28 @@
         <v>1</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ67" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK67" s="2" t="n">
         <v>3</v>
@@ -9245,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -9272,28 +9272,28 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>3</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>1</v>
@@ -9302,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
@@ -9320,13 +9320,13 @@
         <v>1</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
         <v>1</v>
@@ -9335,13 +9335,13 @@
         <v>1</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK68" t="n">
         <v>3</v>
@@ -9378,25 +9378,25 @@
         <v>0</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>1</v>
@@ -9405,28 +9405,28 @@
         <v>0</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="2" t="n">
         <v>1</v>
@@ -9435,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="W69" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X69" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="2" t="n">
         <v>0</v>
@@ -9453,28 +9453,28 @@
         <v>1</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH69" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ69" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK69" s="2" t="n">
         <v>3</v>
@@ -9505,25 +9505,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -9532,28 +9532,28 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>1</v>
@@ -9562,10 +9562,10 @@
         <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
@@ -9580,28 +9580,28 @@
         <v>1</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG70" t="n">
         <v>1</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI70" t="n">
         <v>1</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK70" t="n">
         <v>3</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2" t="n">
         <v>1</v>
@@ -9665,28 +9665,28 @@
         <v>1</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="2" t="n">
         <v>3</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="2" t="n">
         <v>1</v>
@@ -9695,10 +9695,10 @@
         <v>1</v>
       </c>
       <c r="W71" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X71" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="2" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>1</v>
       </c>
       <c r="AC71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH71" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ71" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK71" s="2" t="n">
         <v>3</v>
@@ -9765,25 +9765,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -9792,28 +9792,28 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
         <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>1</v>
@@ -9822,10 +9822,10 @@
         <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
@@ -9840,28 +9840,28 @@
         <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
         <v>1</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI72" t="n">
         <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK72" t="n">
         <v>3</v>
@@ -9898,16 +9898,16 @@
         <v>0</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2" t="n">
         <v>1</v>
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2" t="n">
         <v>3</v>
@@ -9934,19 +9934,19 @@
         <v>1</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="2" t="n">
         <v>1</v>
@@ -9955,10 +9955,10 @@
         <v>1</v>
       </c>
       <c r="W73" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X73" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="2" t="n">
         <v>0</v>
@@ -9973,28 +9973,28 @@
         <v>1</v>
       </c>
       <c r="AC73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH73" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ73" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK73" s="2" t="n">
         <v>3</v>
@@ -10022,28 +10022,28 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>3</v>
@@ -10061,19 +10061,19 @@
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>1</v>
@@ -10082,10 +10082,10 @@
         <v>1</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>1</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF74" t="n">
         <v>1</v>
@@ -10115,13 +10115,13 @@
         <v>1</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI74" t="n">
         <v>1</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK74" t="n">
         <v>3</v>
@@ -10158,16 +10158,16 @@
         <v>0</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="n">
         <v>1</v>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="2" t="n">
         <v>3</v>
@@ -10194,10 +10194,10 @@
         <v>1</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="T75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="2" t="n">
         <v>1</v>
@@ -10215,10 +10215,10 @@
         <v>1</v>
       </c>
       <c r="W75" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X75" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="2" t="n">
         <v>0</v>
@@ -10233,28 +10233,28 @@
         <v>1</v>
       </c>
       <c r="AC75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH75" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ75" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK75" s="2" t="n">
         <v>3</v>
@@ -10285,16 +10285,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -10312,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>3</v>
@@ -10321,10 +10321,10 @@
         <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
         <v>1</v>
@@ -10342,10 +10342,10 @@
         <v>1</v>
       </c>
       <c r="W76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
@@ -10360,28 +10360,28 @@
         <v>1</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
         <v>1</v>
       </c>
       <c r="AF76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
         <v>1</v>
       </c>
       <c r="AH76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI76" t="n">
         <v>1</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK76" t="n">
         <v>3</v>
@@ -10418,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2" t="n">
         <v>1</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="2" t="n">
         <v>3</v>
@@ -10454,10 +10454,10 @@
         <v>1</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="2" t="n">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="T77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" s="2" t="n">
         <v>1</v>
@@ -10475,13 +10475,13 @@
         <v>1</v>
       </c>
       <c r="W77" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X77" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="2" t="n">
         <v>1</v>
@@ -10493,28 +10493,28 @@
         <v>1</v>
       </c>
       <c r="AC77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH77" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ77" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK77" s="2" t="n">
         <v>3</v>
@@ -10545,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
@@ -10581,10 +10581,10 @@
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>1</v>
@@ -10602,13 +10602,13 @@
         <v>1</v>
       </c>
       <c r="W78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -10629,19 +10629,19 @@
         <v>1</v>
       </c>
       <c r="AF78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
         <v>1</v>
       </c>
       <c r="AH78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI78" t="n">
         <v>1</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK78" t="n">
         <v>3</v>
@@ -10678,10 +10678,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="n">
         <v>1</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="2" t="n">
         <v>3</v>
@@ -10714,19 +10714,19 @@
         <v>1</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="2" t="n">
         <v>1</v>
@@ -10735,13 +10735,13 @@
         <v>1</v>
       </c>
       <c r="W79" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X79" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="2" t="n">
         <v>1</v>
@@ -10756,25 +10756,25 @@
         <v>1</v>
       </c>
       <c r="AD79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ79" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK79" s="2" t="n">
         <v>3</v>
@@ -10805,10 +10805,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -10841,10 +10841,10 @@
         <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
         <v>1</v>
@@ -10862,13 +10862,13 @@
         <v>1</v>
       </c>
       <c r="W80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
         <v>1</v>
@@ -10886,22 +10886,22 @@
         <v>1</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG80" t="n">
         <v>1</v>
       </c>
       <c r="AH80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI80" t="n">
         <v>1</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK80" t="n">
         <v>3</v>
@@ -10938,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>1</v>
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="2" t="n">
         <v>3</v>
@@ -10980,13 +10980,13 @@
         <v>1</v>
       </c>
       <c r="R81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" s="2" t="n">
         <v>1</v>
@@ -10995,13 +10995,13 @@
         <v>1</v>
       </c>
       <c r="W81" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X81" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="2" t="n">
         <v>1</v>
@@ -11016,25 +11016,25 @@
         <v>1</v>
       </c>
       <c r="AD81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH81" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ81" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK81" s="2" t="n">
         <v>3</v>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -11107,13 +11107,13 @@
         <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" t="n">
         <v>1</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
         <v>1</v>
@@ -11122,13 +11122,13 @@
         <v>1</v>
       </c>
       <c r="W82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
         <v>1</v>
@@ -11146,22 +11146,22 @@
         <v>1</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
         <v>1</v>
       </c>
       <c r="AH82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI82" t="n">
         <v>1</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK82" t="n">
         <v>3</v>
@@ -11174,9 +11174,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN82" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
